--- a/MTG-AUT/data/LoginWithCustomer.xlsx
+++ b/MTG-AUT/data/LoginWithCustomer.xlsx
@@ -22,10 +22,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>0201030293</t>
+    <t>0201030273</t>
   </si>
   <si>
-    <t>00635259</t>
+    <t>89892728</t>
   </si>
 </sst>
 </file>
@@ -645,11 +645,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,7 +993,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1010,16 +1011,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MTG-AUT/data/LoginWithCustomer.xlsx
+++ b/MTG-AUT/data/LoginWithCustomer.xlsx
@@ -645,11 +645,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -990,16 +989,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.85" customWidth="1"/>
-    <col min="2" max="2" width="31.7166666666667" customWidth="1"/>
+    <col min="1" max="1" width="63.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1011,16 +1009,28 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MTG-AUT/data/LoginWithCustomer.xlsx
+++ b/MTG-AUT/data/LoginWithCustomer.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -22,16 +35,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>0201030273</t>
+    <t>0639852451</t>
   </si>
   <si>
-    <t>89892728</t>
+    <t>75048152</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>

--- a/MTG-AUT/data/LoginWithCustomer.xlsx
+++ b/MTG-AUT/data/LoginWithCustomer.xlsx
@@ -35,10 +35,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>0639852451</t>
+    <t>0912345678</t>
   </si>
   <si>
-    <t>75048152</t>
+    <t>76310652</t>
   </si>
 </sst>
 </file>
